--- a/01 渲染管线/01 Forward/Forward Pass.xlsx
+++ b/01 渲染管线/01 Forward/Forward Pass.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -473,7 +473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,7 +508,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,21 +720,21 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="29.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="46.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -757,12 +757,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
@@ -782,7 +782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -791,12 +791,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>67</v>
       </c>
@@ -816,7 +816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>55</v>
@@ -834,7 +834,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
         <v>83</v>
@@ -852,12 +852,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
@@ -877,7 +877,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -887,7 +887,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
@@ -907,14 +907,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>72</v>
       </c>
@@ -934,7 +934,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>35</v>
@@ -952,7 +952,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
@@ -972,7 +972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
@@ -984,12 +984,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
         <v>9</v>
@@ -1016,13 +1016,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>76</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
